--- a/data/delete.xlsx
+++ b/data/delete.xlsx
@@ -118,202 +118,202 @@
     <t xml:space="preserve">W F Time</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;S:213&gt; = &lt;init&gt; -&gt; &lt;S:213&gt;.contains(\"A\"){418}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:216&gt; = &lt;init&gt; -&gt; &lt;S:216&gt;.contains(\"C\"){211}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:219&gt; = &lt;init&gt; -&gt; &lt;S:219&gt;.contains(\"B\"){247}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:222&gt; = &lt;init&gt; -&gt; &lt;S:222&gt;.contains(\"D\"){224}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:225&gt; = &lt;init&gt; -&gt; &lt;S:225&gt;.equals(\"AB\"){17}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:228&gt; = &lt;init&gt; -&gt; &lt;S:228&gt;.equals(\"AC\"){68}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){1995} -&gt; &lt;S:6&gt;.contains(\"A\"){2594}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){199} -&gt; &lt;S:18&gt;.equals(\"B\"){204}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){210} -&gt; &lt;S:21&gt;.equals(\"AC\"){313}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){255} -&gt; &lt;S:9&gt;.contains(\"C\"){884}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){264} -&gt; &lt;S:12&gt;.contains(\"B\"){1064}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){286} -&gt; &lt;S:15&gt;.contains(\"D\"){801}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){143} -&gt; &lt;S:36&gt;.contains(\"D\"){423}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){154} -&gt; &lt;S:33&gt;.contains(\"B\"){454}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){156} -&gt; &lt;S:30&gt;.contains(\"C\"){464}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){157} -&gt; &lt;S:39&gt;.equals(\"\"){161}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){177} -&gt; &lt;S:27&gt;.contains(\"A\"){469}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){221} -&gt; &lt;S:42&gt;.equals(\"AC\"){295}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){122} -&gt; &lt;S:60&gt;.equals(\"\"){126}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){126} -&gt; &lt;S:63&gt;.equals(\"AC\"){244}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){138} -&gt; &lt;S:57&gt;.contains(\"D\"){363}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){178} -&gt; &lt;S:54&gt;.contains(\"B\"){446}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){184} -&gt; &lt;S:51&gt;.contains(\"C\"){476}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){193} -&gt; &lt;S:48&gt;.contains(\"A\"){455}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){119} -&gt; &lt;S:72&gt;.contains(\"C\"){131}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){119} -&gt; &lt;S:78&gt;.contains(\"D\"){129}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){120} -&gt; &lt;S:69&gt;.contains(\"A\"){130}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){120} -&gt; &lt;S:75&gt;.contains(\"B\"){131}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){142} -&gt; &lt;S:81&gt;.equals(\"\"){145}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){230} -&gt; &lt;S:84&gt;.equals(\"AC\"){300}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){131} -&gt; &lt;S:93&gt;.contains(\"C\"){483}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){133} -&gt; &lt;S:102&gt;.equals(\"A\"){138}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){144} -&gt; &lt;S:99&gt;.contains(\"D\"){335}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){176} -&gt; &lt;S:90&gt;.contains(\"A\"){811}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){201} -&gt; &lt;S:96&gt;.contains(\"B\"){534}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){211} -&gt; &lt;S:105&gt;.equals(\"AC\"){289}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){126} -&gt; &lt;S:120&gt;.contains(\"D\"){305}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){126} -&gt; &lt;S:126&gt;.equals(\"AC\"){185}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){136} -&gt; &lt;S:123&gt;.equals(\"A\"){141}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){138} -&gt; &lt;S:117&gt;.contains(\"B\"){346}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){150} -&gt; &lt;S:111&gt;.contains(\"A\"){531}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){224} -&gt; &lt;S:114&gt;.contains(\"C\"){459}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){127} -&gt; &lt;S:132&gt;.contains(\"A\"){657}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){136} -&gt; &lt;S:141&gt;.contains(\"D\"){546}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){137} -&gt; &lt;S:138&gt;.contains(\"B\"){365}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){149} -&gt; &lt;S:135&gt;.contains(\"C\"){374}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){206} -&gt; &lt;S:147&gt;.equals(\"AC\"){308}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){213} -&gt; &lt;S:144&gt;.equals(\"A\"){220}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){144} -&gt; &lt;S:162&gt;.contains(\"D\"){362}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){157} -&gt; &lt;S:156&gt;.contains(\"C\"){391}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){182} -&gt; &lt;S:168&gt;.equals(\"AC\"){259}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){185} -&gt; &lt;S:159&gt;.contains(\"B\"){647}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){231} -&gt; &lt;S:153&gt;.contains(\"A\"){967}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){4503} -&gt; &lt;S:165&gt;.equals(\"AB\"){4509}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){120} -&gt; &lt;S:186&gt;.equals(\"AB\"){125}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){124} -&gt; &lt;S:189&gt;.equals(\"AC\"){169}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){132} -&gt; &lt;S:177&gt;.contains(\"C\"){327}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){135} -&gt; &lt;S:180&gt;.contains(\"B\"){868}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){149} -&gt; &lt;S:183&gt;.contains(\"D\"){347}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){171} -&gt; &lt;S:174&gt;.contains(\"A\"){472}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){117} -&gt; &lt;S:195&gt;.contains(\"A\"){630}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){133} -&gt; &lt;S:207&gt;.equals(&lt;S:209&gt;){137}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){138} -&gt; &lt;S:210&gt;.equals(\"AC\"){187}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){142} -&gt; &lt;S:198&gt;.contains(\"C\"){519}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){166} -&gt; &lt;S:204&gt;.contains(\"D\"){353}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){225} -&gt; &lt;S:201&gt;.contains(\"B\"){1218}</t>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){2051} -&gt; &lt;S:6&gt;.contains(\"A\"){2751}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){274} -&gt; &lt;S:9&gt;.contains(\"C\"){813}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){287} -&gt; &lt;S:12&gt;.contains(\"B\"){805}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){199} -&gt; &lt;S:15&gt;.contains(\"D\"){874}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){248} -&gt; &lt;S:18&gt;.equals(\"D\"){253}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 0){226} -&gt; &lt;S:21&gt;.equals(\"AC\"){423}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){221} -&gt; &lt;S:27&gt;.contains(\"A\"){569}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){149} -&gt; &lt;S:30&gt;.contains(\"C\"){576}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){215} -&gt; &lt;S:33&gt;.contains(\"B\"){728}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){304} -&gt; &lt;S:36&gt;.contains(\"D\"){774}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){209} -&gt; &lt;S:39&gt;.equals(\"\"){217}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 1){253} -&gt; &lt;S:42&gt;.equals(\"AC\"){337}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){267} -&gt; &lt;S:48&gt;.contains(\"A\"){728}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){384} -&gt; &lt;S:51&gt;.contains(\"C\"){742}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){204} -&gt; &lt;S:54&gt;.contains(\"B\"){698}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){469} -&gt; &lt;S:57&gt;.contains(\"D\"){868}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){141} -&gt; &lt;S:60&gt;.equals(\"\"){147}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 2){196} -&gt; &lt;S:63&gt;.equals(\"AC\"){294}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){195} -&gt; &lt;S:69&gt;.contains(\"A\"){225}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){194} -&gt; &lt;S:72&gt;.contains(\"C\"){211}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){293} -&gt; &lt;S:75&gt;.contains(\"B\"){310}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){221} -&gt; &lt;S:78&gt;.contains(\"D\"){236}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){228} -&gt; &lt;S:81&gt;.equals(\"\"){234}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(0, 3){197} -&gt; &lt;S:84&gt;.equals(\"AC\"){450}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){293} -&gt; &lt;S:90&gt;.contains(\"A\"){760}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){225} -&gt; &lt;S:93&gt;.contains(\"C\"){607}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){252} -&gt; &lt;S:96&gt;.contains(\"B\"){1236}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){194} -&gt; &lt;S:99&gt;.contains(\"D\"){580}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){235} -&gt; &lt;S:102&gt;.equals(\"B\"){243}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 1){229} -&gt; &lt;S:105&gt;.equals(\"AC\"){326}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){237} -&gt; &lt;S:111&gt;.contains(\"A\"){529}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){236} -&gt; &lt;S:114&gt;.contains(\"C\"){566}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){260} -&gt; &lt;S:117&gt;.contains(\"B\"){779}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){148} -&gt; &lt;S:120&gt;.contains(\"D\"){325}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){168} -&gt; &lt;S:123&gt;.equals(\"B\"){174}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 2){141} -&gt; &lt;S:126&gt;.equals(\"AC\"){215}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){202} -&gt; &lt;S:132&gt;.contains(\"A\"){745}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){188} -&gt; &lt;S:135&gt;.contains(\"C\"){408}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){246} -&gt; &lt;S:138&gt;.contains(\"B\"){1653}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){579} -&gt; &lt;S:141&gt;.contains(\"D\"){872}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){253} -&gt; &lt;S:144&gt;.equals(\"B\"){267}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(1, 3){143} -&gt; &lt;S:147&gt;.equals(\"AC\"){204}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){188} -&gt; &lt;S:153&gt;.contains(\"A\"){496}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){286} -&gt; &lt;S:156&gt;.contains(\"C\"){667}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){223} -&gt; &lt;S:159&gt;.contains(\"B\"){867}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){558} -&gt; &lt;S:162&gt;.contains(\"D\"){1168}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){6215} -&gt; &lt;S:165&gt;.equals(\"BD\"){6222}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 2){246} -&gt; &lt;S:168&gt;.equals(\"AC\"){342}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){345} -&gt; &lt;S:174&gt;.contains(\"A\"){575}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){239} -&gt; &lt;S:177&gt;.contains(\"C\"){574}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){251} -&gt; &lt;S:180&gt;.contains(\"B\"){1047}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){208} -&gt; &lt;S:183&gt;.contains(\"D\"){526}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){107} -&gt; &lt;S:186&gt;.equals(\"BD\"){112}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(2, 3){102} -&gt; &lt;S:189&gt;.equals(\"AC\"){149}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){112} -&gt; &lt;S:195&gt;.contains(\"A\"){371}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){121} -&gt; &lt;S:198&gt;.contains(\"C\"){483}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){229} -&gt; &lt;S:201&gt;.contains(\"B\"){1392}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){468} -&gt; &lt;S:204&gt;.contains(\"D\"){894}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){162} -&gt; &lt;S:207&gt;.equals(&lt;S:209&gt;){166}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:2&gt; = &lt;init&gt; -&gt; &lt;S:2&gt;.delete(3, 3){139} -&gt; &lt;S:210&gt;.equals(\"AC\"){186}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:213&gt; = &lt;init&gt; -&gt; &lt;S:213&gt;.contains(\"A\"){135}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:216&gt; = &lt;init&gt; -&gt; &lt;S:216&gt;.contains(\"C\"){270}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:219&gt; = &lt;init&gt; -&gt; &lt;S:219&gt;.contains(\"B\"){379}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:222&gt; = &lt;init&gt; -&gt; &lt;S:222&gt;.contains(\"D\"){230}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:225&gt; = &lt;init&gt; -&gt; &lt;S:225&gt;.equals(\"BD\"){14}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;S:228&gt; = &lt;init&gt; -&gt; &lt;S:228&gt;.equals(\"AC\"){108}</t>
   </si>
 </sst>
 </file>
@@ -411,14 +411,14 @@
   </sheetPr>
   <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M:M"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4336734693878"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.30612244897959"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.21428571428571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.03571428571429"/>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>32</v>
@@ -597,54 +597,54 @@
         <v>40</v>
       </c>
       <c r="R2" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>2751</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>3612</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>9526</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>233660</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>418</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>770</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>1109</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>767</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="AE2" s="0" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>33</v>
@@ -695,54 +695,54 @@
         <v>40</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>211</v>
+        <v>813</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>278</v>
+        <v>880</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>829</v>
+        <v>5075</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>155531</v>
+        <v>271287</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>34</v>
@@ -793,54 +793,54 @@
         <v>40</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>247</v>
+        <v>805</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>748</v>
+        <v>683</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>1141</v>
+        <v>4696</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>818</v>
+        <v>239854</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>35</v>
@@ -891,54 +891,54 @@
         <v>40</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>224</v>
+        <v>874</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>243</v>
+        <v>1404</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>766</v>
+        <v>4363</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>157317</v>
+        <v>2298</v>
       </c>
       <c r="W5" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="X5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="AE5" s="0" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>36</v>
@@ -989,54 +989,54 @@
         <v>84</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>502</v>
+        <v>1851</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>355</v>
+        <v>935</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>37</v>
@@ -1087,54 +1087,54 @@
         <v>84</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>68</v>
+        <v>423</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>816</v>
+        <v>3413</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>204419</v>
+        <v>363499</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>38</v>
@@ -1143,96 +1143,96 @@
         <v>85</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M8" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>569</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>627</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>1777</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>307596</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="0" t="n">
         <v>40</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>2594</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>2991</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>10470</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>225076</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>119</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>39</v>
@@ -1241,88 +1241,88 @@
         <v>85</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>204</v>
+        <v>576</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>284</v>
+        <v>482</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>2845</v>
+        <v>1320</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>840</v>
+        <v>227910</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AB9" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AC9" s="0" t="n">
-        <v>38</v>
-      </c>
       <c r="AD9" s="0" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>37</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>40</v>
@@ -1339,96 +1339,96 @@
         <v>85</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>313</v>
+        <v>728</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>364</v>
+        <v>541</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>2672</v>
+        <v>1399</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>311920</v>
+        <v>214545</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>26</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>41</v>
@@ -1437,96 +1437,96 @@
         <v>85</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>884</v>
+        <v>774</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>1226</v>
+        <v>402</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>3491</v>
+        <v>1502</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>213472</v>
+        <v>207977</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>42</v>
@@ -1535,96 +1535,96 @@
         <v>85</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1064</v>
+        <v>217</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>1891</v>
+        <v>223</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>3336</v>
+        <v>829</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>3190</v>
+        <v>538</v>
       </c>
       <c r="W12" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="X12" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>58</v>
-      </c>
       <c r="AE12" s="0" t="n">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>43</v>
@@ -1633,96 +1633,96 @@
         <v>85</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>801</v>
+        <v>337</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>849</v>
+        <v>278</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>3788</v>
+        <v>981</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>219489</v>
+        <v>280314</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>29</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>44</v>
@@ -1731,96 +1731,96 @@
         <v>85</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>423</v>
+        <v>728</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>366</v>
+        <v>524</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>1216</v>
+        <v>844</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>209733</v>
+        <v>198937</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>25</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>45</v>
@@ -1829,96 +1829,96 @@
         <v>85</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>742</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1365</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>210514</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>454</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>453</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>1102</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>205927</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>33</v>
-      </c>
       <c r="AA15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AB15" s="0" t="n">
-        <v>26</v>
-      </c>
       <c r="AC15" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>46</v>
@@ -1927,96 +1927,96 @@
         <v>85</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>698</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>1313</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>203939</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>464</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>1784</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>206945</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>48</v>
-      </c>
       <c r="AA16" s="0" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="0" t="n">
         <v>29</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AE16" s="0" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>47</v>
@@ -2025,19 +2025,19 @@
         <v>85</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>1</v>
@@ -2049,64 +2049,64 @@
         <v>1</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="N17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>868</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>645</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>1653</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>206043</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>1128</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>476</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB17" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC17" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="AD17" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE17" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>20</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>48</v>
@@ -2123,96 +2123,96 @@
         <v>85</v>
       </c>
       <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="I18" s="0" t="n">
+      <c r="M18" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>844</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>469</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>626</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>1455</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>213411</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB18" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC18" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD18" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="AE18" s="0" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>49</v>
@@ -2221,96 +2221,96 @@
         <v>85</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>713</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>281547</v>
+      </c>
+      <c r="W19" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>1473</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>275063</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>25</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>14</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="0" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AC19" s="0" t="n">
         <v>23</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE19" s="0" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>50</v>
@@ -2319,96 +2319,96 @@
         <v>85</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Y20" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z20" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB20" s="0" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AC20" s="0" t="n">
         <v>8</v>
       </c>
       <c r="AD20" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="0" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>51</v>
@@ -2417,13 +2417,13 @@
         <v>85</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>85</v>
@@ -2447,66 +2447,66 @@
         <v>85</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>85</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>579</v>
+        <v>367</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>270212</v>
+        <v>245</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="AB21" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>52</v>
@@ -2515,96 +2515,96 @@
         <v>85</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>864</v>
+        <v>340</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>200322</v>
+        <v>249</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="0" t="n">
         <v>9</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD22" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE22" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF22" s="0" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>53</v>
@@ -2613,96 +2613,96 @@
         <v>85</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>446</v>
+        <v>236</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>660</v>
+        <v>484</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>202964</v>
+        <v>231</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB23" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="AD23" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>54</v>
@@ -2711,19 +2711,19 @@
         <v>85</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>1</v>
@@ -2732,75 +2732,75 @@
         <v>1</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>476</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>372</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <v>1001</v>
-      </c>
-      <c r="V24" s="0" t="n">
-        <v>210203</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA24" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB24" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC24" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE24" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF24" s="0" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>55</v>
@@ -2809,509 +2809,509 @@
         <v>85</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>398</v>
+        <v>139</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>1045</v>
+        <v>404</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>198993</v>
+        <v>274202</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AA25" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AD25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="AE25" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="AF25" s="0" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>131</v>
+        <v>760</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>237</v>
+        <v>452</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>284</v>
+        <v>1994</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>269</v>
+        <v>152450</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="AA26" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AB26" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="AC26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="AF26" s="0" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>129</v>
+        <v>607</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>273</v>
+        <v>570</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>288</v>
+        <v>1738</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>243</v>
+        <v>155711</v>
       </c>
       <c r="W27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>897</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="X27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD27" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="AE27" s="0" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>130</v>
+        <v>1236</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>250</v>
+        <v>1428</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>296</v>
+        <v>2251</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>252</v>
+        <v>1257</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AA28" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AB28" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AD28" s="0" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="AE28" s="0" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>131</v>
+        <v>580</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>357</v>
+        <v>1490</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>264</v>
+        <v>156656</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Z29" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AA29" s="0" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AB29" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC29" s="0" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AD29" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE29" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AF29" s="0" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1</v>
@@ -3323,170 +3323,170 @@
         <v>1</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>246</v>
+        <v>1012</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>352</v>
+        <v>646</v>
       </c>
       <c r="W30" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB30" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="X30" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB30" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="AC30" s="0" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AD30" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="AE30" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>146</v>
+        <v>426</v>
       </c>
       <c r="U31" s="0" t="n">
-        <v>738</v>
+        <v>1119</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>267014</v>
+        <v>210339</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z31" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA31" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB31" s="0" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AC31" s="0" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="AD31" s="0" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AE31" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>62</v>
@@ -3495,96 +3495,96 @@
         <v>84</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="T32" s="0" t="n">
-        <v>411</v>
+        <v>648</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>1425</v>
+        <v>1007</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>155423</v>
+        <v>156654</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Z32" s="0" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AA32" s="0" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AB32" s="0" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AC32" s="0" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AD32" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE32" s="0" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>63</v>
@@ -3593,96 +3593,96 @@
         <v>84</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>138</v>
+        <v>566</v>
       </c>
       <c r="T33" s="0" t="n">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>903</v>
+        <v>3220</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>573</v>
+        <v>157332</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="X33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y33" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="AA33" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AB33" s="0" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AC33" s="0" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD33" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE33" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF33" s="0" t="n">
         <v>14</v>
-      </c>
-      <c r="AF33" s="0" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>64</v>
@@ -3691,96 +3691,96 @@
         <v>84</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>335</v>
+        <v>779</v>
       </c>
       <c r="T34" s="0" t="n">
-        <v>474</v>
+        <v>593</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>3457</v>
+        <v>968</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>158987</v>
+        <v>879</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Z34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD34" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AA34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB34" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC34" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD34" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="AE34" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF34" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>65</v>
@@ -3789,96 +3789,96 @@
         <v>84</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>811</v>
+        <v>325</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>916</v>
+        <v>369</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>2561</v>
+        <v>782</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>1101</v>
+        <v>156019</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y35" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB35" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="Z35" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA35" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB35" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="AC35" s="0" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AD35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF35" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="AE35" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF35" s="0" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>66</v>
@@ -3887,96 +3887,96 @@
         <v>84</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>534</v>
+        <v>174</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>576</v>
+        <v>132</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>1792</v>
+        <v>613</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>148458</v>
+        <v>504</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="Z36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="AA36" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB36" s="0" t="n">
-        <v>43</v>
-      </c>
       <c r="AC36" s="0" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AD36" s="0" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="AE36" s="0" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>67</v>
@@ -3985,19 +3985,19 @@
         <v>84</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>1</v>
@@ -4009,72 +4009,72 @@
         <v>1</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>2033</v>
+        <v>743</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>206326</v>
+        <v>208764</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y37" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z37" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA37" s="0" t="n">
         <v>4</v>
       </c>
       <c r="AB37" s="0" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AC37" s="0" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AD37" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE37" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>68</v>
@@ -4083,96 +4083,96 @@
         <v>84</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>745</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>893</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>154496</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y38" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="R38" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="S38" s="0" t="n">
-        <v>305</v>
-      </c>
-      <c r="T38" s="0" t="n">
-        <v>402</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>699</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <v>155514</v>
-      </c>
-      <c r="W38" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <v>14</v>
       </c>
       <c r="Z38" s="0" t="n">
         <v>9</v>
       </c>
       <c r="AA38" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB38" s="0" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AC38" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD38" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE38" s="0" t="n">
         <v>7</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>69</v>
@@ -4181,19 +4181,19 @@
         <v>84</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>1</v>
@@ -4202,75 +4202,75 @@
         <v>1</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>185</v>
+        <v>408</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>1024</v>
+        <v>627</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>196220</v>
+        <v>152564</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X39" s="0" t="n">
         <v>10</v>
       </c>
       <c r="Y39" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA39" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AA39" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="AB39" s="0" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AD39" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE39" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>70</v>
@@ -4279,19 +4279,19 @@
         <v>84</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>1</v>
@@ -4300,75 +4300,75 @@
         <v>1</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>81</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>141</v>
+        <v>1653</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>186</v>
+        <v>512</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>472</v>
+        <v>622</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Z40" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="AB40" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC40" s="0" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AD40" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE40" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>71</v>
@@ -4377,96 +4377,96 @@
         <v>84</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F41" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>872</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>156192</v>
+      </c>
+      <c r="W41" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="N41" s="0" t="n">
+      <c r="X41" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF41" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="S41" s="0" t="n">
-        <v>346</v>
-      </c>
-      <c r="T41" s="0" t="n">
-        <v>358</v>
-      </c>
-      <c r="U41" s="0" t="n">
-        <v>930</v>
-      </c>
-      <c r="V41" s="0" t="n">
-        <v>152271</v>
-      </c>
-      <c r="W41" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="X41" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z41" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB41" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC41" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE41" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF41" s="0" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>72</v>
@@ -4475,88 +4475,88 @@
         <v>84</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>531</v>
+        <v>267</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>1207</v>
+        <v>138</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>940</v>
+        <v>579</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>942</v>
+        <v>432</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y42" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Z42" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA42" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB42" s="0" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AC42" s="0" t="n">
         <v>24</v>
       </c>
       <c r="AD42" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE42" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>12</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>73</v>
@@ -4573,474 +4573,474 @@
         <v>84</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>84</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>12</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>459</v>
+        <v>204</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>430</v>
+        <v>186</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>1339</v>
+        <v>455</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>153404</v>
+        <v>205743</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Z43" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AA43" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB43" s="0" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AC43" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AD43" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE43" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>657</v>
+        <v>496</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>559</v>
+        <v>357</v>
       </c>
       <c r="U44" s="0" t="n">
-        <v>784</v>
+        <v>1556</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>604</v>
+        <v>101521</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="X44" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="Y44" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z44" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="AA44" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB44" s="0" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AD44" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE44" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>265</v>
+        <v>485</v>
       </c>
       <c r="U45" s="0" t="n">
-        <v>443</v>
+        <v>1582</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>160851</v>
+        <v>101934</v>
       </c>
       <c r="W45" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD45" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X45" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA45" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB45" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC45" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD45" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="AE45" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>365</v>
+        <v>867</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>277</v>
+        <v>1335</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>872</v>
+        <v>1489</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>151137</v>
+        <v>1107</v>
       </c>
       <c r="W46" s="0" t="n">
         <v>36</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="Y46" s="0" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z46" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA46" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AB46" s="0" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC46" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD46" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE46" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AD46" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE46" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="AF46" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F47" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>1168</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>901</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>1370</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>1191</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="R47" s="0" t="n">
-        <v>112</v>
-      </c>
-      <c r="S47" s="0" t="n">
-        <v>374</v>
-      </c>
-      <c r="T47" s="0" t="n">
-        <v>375</v>
-      </c>
-      <c r="U47" s="0" t="n">
-        <v>941</v>
-      </c>
-      <c r="V47" s="0" t="n">
-        <v>150356</v>
-      </c>
-      <c r="W47" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="X47" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA47" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB47" s="0" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AC47" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD47" s="0" t="n">
         <v>9</v>
@@ -5049,185 +5049,185 @@
         <v>9</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D48" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>6222</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>763</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>624</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z48" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="AA48" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="AB48" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF48" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <v>308</v>
-      </c>
-      <c r="T48" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>419</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>202321</v>
-      </c>
-      <c r="W48" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC48" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD48" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF48" s="0" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>945</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>134039</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z49" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="R49" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="S49" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="T49" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>411</v>
-      </c>
-      <c r="V49" s="0" t="n">
-        <v>422</v>
-      </c>
-      <c r="W49" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y49" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z49" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="AA49" s="0" t="n">
         <v>6</v>
@@ -5236,21 +5236,21 @@
         <v>38</v>
       </c>
       <c r="AC49" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AD49" s="0" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AE49" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AF49" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>80</v>
@@ -5259,96 +5259,96 @@
         <v>80</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>80</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>362</v>
+        <v>575</v>
       </c>
       <c r="T50" s="0" t="n">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="U50" s="0" t="n">
-        <v>1191</v>
+        <v>633</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>106155</v>
+        <v>101927</v>
       </c>
       <c r="W50" s="0" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Y50" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z50" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Z50" s="0" t="n">
+      <c r="AA50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD50" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="AA50" s="0" t="n">
+      <c r="AE50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF50" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="AB50" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="AC50" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD50" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE50" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF50" s="0" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>81</v>
@@ -5357,96 +5357,96 @@
         <v>80</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>80</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>391</v>
+        <v>574</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>470</v>
+        <v>329</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>2082</v>
+        <v>900</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>102677</v>
+        <v>103678</v>
       </c>
       <c r="W51" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="X51" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y51" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z51" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA51" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB51" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="AC51" s="0" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AD51" s="0" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AE51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF51" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="AF51" s="0" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>82</v>
@@ -5455,96 +5455,96 @@
         <v>80</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>80</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="P52" s="0" t="n">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="S52" s="0" t="n">
-        <v>259</v>
+        <v>1047</v>
       </c>
       <c r="T52" s="0" t="n">
-        <v>210</v>
+        <v>433</v>
       </c>
       <c r="U52" s="0" t="n">
-        <v>1131</v>
+        <v>1223</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>139545</v>
+        <v>769</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Y52" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD52" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE52" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Z52" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB52" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD52" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE52" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="AF52" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>83</v>
@@ -5553,88 +5553,88 @@
         <v>80</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>80</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>647</v>
+        <v>526</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>825</v>
+        <v>443</v>
       </c>
       <c r="U53" s="0" t="n">
-        <v>1937</v>
+        <v>800</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>983</v>
+        <v>1026</v>
       </c>
       <c r="W53" s="0" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Y53" s="0" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Z53" s="0" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AA53" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AB53" s="0" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC53" s="0" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AD53" s="0" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AE53" s="0" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>12</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>84</v>
@@ -5651,96 +5651,96 @@
         <v>80</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>80</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>967</v>
+        <v>112</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>673</v>
+        <v>107</v>
       </c>
       <c r="U54" s="0" t="n">
-        <v>1927</v>
+        <v>855</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>905</v>
+        <v>521</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="Y54" s="0" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Z54" s="0" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AA54" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB54" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC54" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AD54" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE54" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>85</v>
@@ -5749,19 +5749,19 @@
         <v>80</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>80</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>1</v>
@@ -5770,1246 +5770,1246 @@
         <v>1</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N55" s="0" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>4509</v>
+        <v>149</v>
       </c>
       <c r="T55" s="0" t="n">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="U55" s="0" t="n">
-        <v>1099</v>
+        <v>869</v>
       </c>
       <c r="V55" s="0" t="n">
-        <v>496</v>
+        <v>140844</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y55" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Z55" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA55" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="AB55" s="0" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AC55" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AD55" s="0" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AE55" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N56" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="S56" s="0" t="n">
-        <v>125</v>
+        <v>371</v>
       </c>
       <c r="T56" s="0" t="n">
-        <v>92</v>
+        <v>489</v>
       </c>
       <c r="U56" s="0" t="n">
-        <v>806</v>
+        <v>1273</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>487</v>
+        <v>49560</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Y56" s="0" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Z56" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AA56" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB56" s="0" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC56" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD56" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE56" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N57" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="P57" s="0" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>169</v>
+        <v>483</v>
       </c>
       <c r="T57" s="0" t="n">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="U57" s="0" t="n">
-        <v>844</v>
+        <v>937</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>136202</v>
+        <v>49892</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="Y57" s="0" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="Z57" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA57" s="0" t="n">
         <v>7</v>
       </c>
       <c r="AB57" s="0" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC57" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD57" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="AD57" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE57" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="AF57" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>327</v>
+        <v>1392</v>
       </c>
       <c r="T58" s="0" t="n">
-        <v>297</v>
+        <v>719</v>
       </c>
       <c r="U58" s="0" t="n">
-        <v>915</v>
+        <v>3388</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>105985</v>
+        <v>768</v>
       </c>
       <c r="W58" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Y58" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z58" s="0" t="n">
         <v>9</v>
       </c>
       <c r="AA58" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB58" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="AB58" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="AC58" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AD58" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE58" s="0" t="n">
         <v>7</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N59" s="0" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="O59" s="0" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P59" s="0" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="S59" s="0" t="n">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="T59" s="0" t="n">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="U59" s="0" t="n">
-        <v>1144</v>
+        <v>1106</v>
       </c>
       <c r="V59" s="0" t="n">
-        <v>767</v>
+        <v>898</v>
       </c>
       <c r="W59" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="X59" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Y59" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Z59" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA59" s="0" t="n">
         <v>9</v>
       </c>
       <c r="AB59" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC59" s="0" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD59" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE59" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="S60" s="0" t="n">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="T60" s="0" t="n">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="U60" s="0" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>106668</v>
+        <v>468</v>
       </c>
       <c r="W60" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB60" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="X60" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y60" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z60" s="0" t="n">
+      <c r="AC60" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AA60" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB60" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AC60" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="AD60" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE60" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>761</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>69336</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB61" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC61" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J61" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="N61" s="0" t="n">
+      <c r="AD61" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE61" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF61" s="0" t="n">
         <v>9</v>
-      </c>
-      <c r="O61" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="R61" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="S61" s="0" t="n">
-        <v>472</v>
-      </c>
-      <c r="T61" s="0" t="n">
-        <v>432</v>
-      </c>
-      <c r="U61" s="0" t="n">
-        <v>962</v>
-      </c>
-      <c r="V61" s="0" t="n">
-        <v>722</v>
-      </c>
-      <c r="W61" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z61" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA61" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB61" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC61" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD61" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE61" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF61" s="0" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M62" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N62" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O62" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P62" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="S62" s="0" t="n">
-        <v>630</v>
+        <v>135</v>
       </c>
       <c r="T62" s="0" t="n">
-        <v>633</v>
+        <v>159</v>
       </c>
       <c r="U62" s="0" t="n">
-        <v>1181</v>
+        <v>1104</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>771</v>
+        <v>152716</v>
       </c>
       <c r="W62" s="0" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X62" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z62" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD62" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE62" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="Y62" s="0" t="n">
+      <c r="AF62" s="0" t="n">
         <v>14</v>
-      </c>
-      <c r="Z62" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA62" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB62" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC62" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD62" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF62" s="0" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>93</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N63" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O63" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="P63" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="S63" s="0" t="n">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="T63" s="0" t="n">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="U63" s="0" t="n">
-        <v>843</v>
+        <v>779</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>405</v>
+        <v>151364</v>
       </c>
       <c r="W63" s="0" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X63" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Y63" s="0" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Z63" s="0" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="AA63" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB63" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AC63" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD63" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE63" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N64" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O64" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="P64" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="S64" s="0" t="n">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="T64" s="0" t="n">
-        <v>274</v>
+        <v>442</v>
       </c>
       <c r="U64" s="0" t="n">
-        <v>838</v>
+        <v>1048</v>
       </c>
       <c r="V64" s="0" t="n">
-        <v>69755</v>
+        <v>793</v>
       </c>
       <c r="W64" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X64" s="0" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Y64" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Z64" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AA64" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AB64" s="0" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AC64" s="0" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AD64" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE64" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O65" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P65" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q65" s="0" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="S65" s="0" t="n">
-        <v>519</v>
+        <v>230</v>
       </c>
       <c r="T65" s="0" t="n">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="U65" s="0" t="n">
-        <v>1527</v>
+        <v>903</v>
       </c>
       <c r="V65" s="0" t="n">
-        <v>51489</v>
+        <v>832</v>
       </c>
       <c r="W65" s="0" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="X65" s="0" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="Y65" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z65" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA65" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AB65" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC65" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD65" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="AE65" s="0" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M66" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="P66" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Q66" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="R66" s="0" t="n">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="S66" s="0" t="n">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="T66" s="0" t="n">
-        <v>383</v>
+        <v>13</v>
       </c>
       <c r="U66" s="0" t="n">
-        <v>1267</v>
+        <v>411</v>
       </c>
       <c r="V66" s="0" t="n">
-        <v>50956</v>
+        <v>445</v>
       </c>
       <c r="W66" s="0" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X66" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="Y66" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Z66" s="0" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AA66" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AB66" s="0" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AC66" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AD66" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE66" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M67" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="O67" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="P67" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Q67" s="0" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="S67" s="0" t="n">
-        <v>1218</v>
+        <v>108</v>
       </c>
       <c r="T67" s="0" t="n">
-        <v>891</v>
+        <v>49</v>
       </c>
       <c r="U67" s="0" t="n">
-        <v>1150</v>
+        <v>622</v>
       </c>
       <c r="V67" s="0" t="n">
-        <v>800</v>
+        <v>208167</v>
       </c>
       <c r="W67" s="0" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X67" s="0" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="Y67" s="0" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="Z67" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AA67" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB67" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC67" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AD67" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AE67" s="0" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
